--- a/10_参考資料/03_調査/【バグ調査】制御周期変更によるエンコーダカウンタ不具合_回路班バグ調査.xlsx
+++ b/10_参考資料/03_調査/【バグ調査】制御周期変更によるエンコーダカウンタ不具合_回路班バグ調査.xlsx
@@ -1654,7 +1654,7 @@
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:tailEnd type="arrow"/>
         </a:ln>
@@ -1999,110 +1999,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="円/楕円 76"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10869706" y="1972235"/>
-          <a:ext cx="235323" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>895</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="円/楕円 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11183470" y="2050676"/>
-          <a:ext cx="235323" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3285,6 +3181,88 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="線吹き出し 2 (枠付き) 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16002000" y="4762499"/>
+          <a:ext cx="2476500" cy="885265"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -28315"/>
+            <a:gd name="adj6" fmla="val -32608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モータを一定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DUTY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で回した状態で、カウンタ値は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　制御周期を長くするほどカウンタ値は大きくなります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
